--- a/Unity/Assets/Config/Excel/Datas/Unit/HeroSkin.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/HeroSkin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -279,18 +279,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -633,7 +627,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,16 +651,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -675,89 +669,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -776,28 +770,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,7 +1104,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5"/>
@@ -1133,7 +1112,8 @@
     <col min="1" max="1" width="9.14285714285714" style="2"/>
     <col min="2" max="2" width="11.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.1428571428571" style="3" customWidth="1"/>
-    <col min="4" max="7" width="11.75" style="3" customWidth="1"/>
+    <col min="4" max="6" width="11.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.1339285714286" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.7946428571429" style="4" customWidth="1"/>
     <col min="9" max="10" width="12.7946428571429" style="3" customWidth="1"/>
     <col min="11" max="11" width="12.7946428571429" style="5" customWidth="1"/>
@@ -1151,22 +1131,22 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="14"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="6" t="s">
@@ -1178,22 +1158,22 @@
       <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="14"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="6" t="s">
@@ -1214,19 +1194,19 @@
       <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1237,17 +1217,17 @@
       <c r="C4" s="3">
         <v>1001</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="3">
-        <v>60000070</v>
+        <v>10010001</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="2:11">
@@ -1257,17 +1237,17 @@
       <c r="C5" s="3">
         <v>1002</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="3">
-        <v>60000070</v>
+        <v>10020001</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="3"/>
@@ -1281,17 +1261,17 @@
       <c r="C6" s="3">
         <v>1003</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="3">
-        <v>60000070</v>
+        <v>10030001</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/HeroSkin.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/HeroSkin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17560"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -49,6 +49,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>int#ref=TbResource</t>
+  </si>
+  <si>
     <t>map,NumericType,int</t>
   </si>
   <si>
@@ -77,6 +80,12 @@
   </si>
   <si>
     <t>属性值</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>刘备</t>
@@ -751,7 +760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -772,6 +781,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1101,19 +1116,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9.14285714285714" style="2"/>
     <col min="2" max="2" width="11.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.1428571428571" style="3" customWidth="1"/>
     <col min="4" max="6" width="11.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.1339285714286" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.7946428571429" style="4" customWidth="1"/>
     <col min="9" max="10" width="12.7946428571429" style="3" customWidth="1"/>
     <col min="11" max="11" width="12.7946428571429" style="5" customWidth="1"/>
@@ -1141,12 +1156,12 @@
       <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="11"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="6" t="s">
@@ -1166,117 +1181,134 @@
         <v>10</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="9" t="s">
         <v>11</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="11"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="H3" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="I3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>20</v>
+      <c r="K3" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="3">
+    <row r="4" s="1" customFormat="1" spans="1:11">
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="3">
         <v>100101</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
         <v>1001</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3">
         <v>10010001</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="2:11">
-      <c r="B5" s="3">
-        <v>100201</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1002</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3">
-        <v>10020001</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="5"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="2:11">
       <c r="B6" s="3">
-        <v>100301</v>
+        <v>100201</v>
       </c>
       <c r="C6" s="3">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3">
-        <v>10030001</v>
+        <v>10020001</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="5"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="2:11">
+      <c r="B7" s="3">
+        <v>100301</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10030001</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
